--- a/data.xlsx
+++ b/data.xlsx
@@ -1406,6 +1406,1158 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>标题</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="40000"/>
+                      <a:lumOff val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="70000">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'C-viscosity'!$K$2:$K$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>-0.1936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.6385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.7802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.3365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3915</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.6451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7092</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.7708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.3718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.485</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.6413</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.717</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.7624</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.0822</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.0644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.0822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.2052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.2785</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0644</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.2652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.3207</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.0881</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.0852</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.3037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.3681</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.1222</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.1281</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.3244</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.4304</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.1319</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.1711</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1881</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.3459</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.443</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.0263</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.0072</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.0716</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.1718</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.2387</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.0549</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0525</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.0453</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.1575</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.2267</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.0621</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.0525</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.0549</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.0955</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.179</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.0692</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.0215</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0215</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.3317</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.0334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.043</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.0453</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.0095</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.1193</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0437</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0549</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.1026</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1632</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="1"/>
+        <c:axId val="210875573"/>
+        <c:axId val="508301145"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210875573"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508301145"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508301145"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210875573"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" dist="37357" dir="2700000" sx="0" sy="0" rotWithShape="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="786765" y="2474595"/>
+        <a:ext cx="16738600" cy="7185025"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1653,13 +2805,205 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="【4】">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="0C0E1F"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FEFFFF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="FEB348"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="FE7B48"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="5FB6FF"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="3787FF"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4165FF"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="48C8AC"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="304FFE"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="492067"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="自定义 2">
+    <a:majorFont>
+      <a:latin typeface="微软雅黑"/>
+      <a:ea typeface="微软雅黑"/>
+      <a:cs typeface=""/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="微软雅黑"/>
+      <a:ea typeface="微软雅黑"/>
+      <a:cs typeface=""/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I47"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3019,7 +4363,7 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="V57" sqref="V57:W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5015,7 +6359,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="K2" sqref="K2:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -7692,6 +9036,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7700,12 +9045,13 @@
   <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="14.0769230769231"/>
     <col min="4" max="4" width="6.76923076923077" style="10" customWidth="1"/>
     <col min="5" max="5" width="6.69230769230769" style="10" customWidth="1"/>
   </cols>
@@ -8987,7 +10333,7 @@
     </row>
     <row r="76" ht="17.55" spans="1:5">
       <c r="A76">
-        <v>-4166.66724370227</v>
+        <v>-416.66724370227</v>
       </c>
       <c r="B76" s="11">
         <v>0.0139</v>
@@ -9014,7 +10360,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
